--- a/xlsx/地中海式气候_intext.xlsx
+++ b/xlsx/地中海式气候_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="366">
   <si>
     <t>地中海式气候</t>
   </si>
@@ -29,7 +29,7 @@
     <t>地中海</t>
   </si>
   <si>
-    <t>政策_政策_美國_地中海式气候</t>
+    <t>政策_政策_美国_地中海式气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E6%B5%B7</t>
@@ -41,13 +41,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>加利福尼亞州</t>
+    <t>加利福尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%9D%9E%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>南非共和國</t>
+    <t>南非共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E5%88%A9</t>
@@ -83,7 +83,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E6%A5%AD</t>
   </si>
   <si>
-    <t>農業</t>
+    <t>农业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%81%8C%E6%BA%89</t>
@@ -95,19 +95,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E5%8F%8A%E7%88%BE</t>
   </si>
   <si>
-    <t>阿爾及爾</t>
+    <t>阿尔及尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%A2%A8%E5%B8%B6</t>
   </si>
   <si>
-    <t>西風帶</t>
+    <t>西风带</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%AF%E7%86%B1%E5%B8%B6%E9%AB%98%E5%A3%93%E5%B8%B6</t>
   </si>
   <si>
-    <t>副熱帶高壓帶</t>
+    <t>副热带高压带</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E9%A3%8E%E5%B8%A6</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%9C%B0%E4%BA%9E%E5%93%A5</t>
   </si>
   <si>
-    <t>聖地亞哥</t>
+    <t>圣地亚哥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84</t>
@@ -131,7 +131,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A9%84%E6%AC%96_(%E6%9C%A8%E6%A8%A8%E7%A7%91)</t>
   </si>
   <si>
-    <t>橄欖 (木樨科)</t>
+    <t>橄榄 (木樨科)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%91%E6%A9%98</t>
@@ -155,7 +155,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>義大利</t>
+    <t>义大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E9%A9%AC</t>
@@ -167,7 +167,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BE%85%E5%80%AB%E6%96%AF</t>
   </si>
   <si>
-    <t>佛羅倫斯</t>
+    <t>佛罗伦斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%A3%E4%B8%8D%E5%8B%92%E6%96%AF</t>
@@ -203,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E7%B4%8D%E5%93%A5</t>
   </si>
   <si>
-    <t>摩納哥</t>
+    <t>摩纳哥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
@@ -215,13 +215,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%BE%B7%E9%87%8C</t>
   </si>
   <si>
-    <t>馬德里</t>
+    <t>马德里</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%A1%9E%E9%9A%86%E7%B4%8D</t>
   </si>
   <si>
-    <t>巴塞隆納</t>
+    <t>巴塞隆纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99</t>
@@ -239,13 +239,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%88%BE%E5%9C%96</t>
   </si>
   <si>
-    <t>波爾圖</t>
+    <t>波尔图</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98</t>
   </si>
   <si>
-    <t>希臘</t>
+    <t>希腊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%85%B8</t>
@@ -275,7 +275,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E9%AD%AF%E7%89%B9</t>
   </si>
   <si>
-    <t>貝魯特</t>
+    <t>贝鲁特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%99%E5%88%A9%E4%BA%9A</t>
@@ -287,7 +287,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%A6%AC%E5%A3%AB%E9%9D%A9</t>
   </si>
   <si>
-    <t>大馬士革</t>
+    <t>大马士革</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97</t>
@@ -359,7 +359,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%9C%B0%E7%89%99%E5%93%A5</t>
   </si>
   <si>
-    <t>聖地牙哥</t>
+    <t>圣地牙哥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%9F%B6</t>
@@ -377,9 +377,6 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%BE%B7%E8%90%8A%E5%BE%B7</t>
   </si>
   <si>
-    <t>阿德萊德</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E4%BA%9A</t>
   </si>
   <si>
@@ -407,7 +404,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%94%E7%88%BE%E8%B2%9D%E9%81%94</t>
   </si>
   <si>
-    <t>達爾貝達</t>
+    <t>达尔贝达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%AF%E6%9C%AC%E6%B0%94%E5%80%99%E5%88%86%E7%B1%BB%E6%B3%95</t>
@@ -653,19 +650,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%9E%E5%B3%B6%E5%BC%A7</t>
   </si>
   <si>
-    <t>東亞島弧</t>
+    <t>东亚岛弧</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%8D%B0%E5%BA%A6</t>
   </si>
   <si>
-    <t>東印度</t>
+    <t>东印度</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E6%AC%A1%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>印度次大陸</t>
+    <t>印度次大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2</t>
@@ -779,13 +776,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E7%88%BE%E5%B9%B9%E5%8D%8A%E5%B3%B6</t>
   </si>
   <si>
-    <t>巴爾幹半島</t>
+    <t>巴尔干半岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E4%BF%84</t>
   </si>
   <si>
-    <t>歐俄</t>
+    <t>欧俄</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
@@ -887,7 +884,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E9%87%8C%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>玻里尼西亞</t>
+    <t>玻里尼西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%81%E5%9C%B0</t>
@@ -911,7 +908,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A4%AA%E5%B9%B3%E6%B4%8B%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>環太平洋地區</t>
+    <t>环太平洋地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%A4%AA%E5%9C%B0%E5%8C%BA</t>
@@ -923,7 +920,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E7%AB%8B%E5%9C%8B%E5%AE%B6%E5%9C%8B%E5%8D%94</t>
   </si>
   <si>
-    <t>獨立國家國協</t>
+    <t>独立国家国协</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E4%B8%96%E7%95%8C</t>
@@ -983,27 +980,21 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>氣候</t>
+    <t>气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%B8%B6</t>
   </si>
   <si>
-    <t>熱帶</t>
+    <t>热带</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%A4%E9%81%93%E5%A4%9A%E9%9B%A8%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>赤道多雨氣候</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%B8%B6%E4%B9%BE%E6%BF%95%E5%AD%A3%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>熱帶乾濕季氣候</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%AD%E5%B8%A6%E8%8D%89%E5%8E%9F%E6%B0%94%E5%80%99</t>
   </si>
   <si>
@@ -1013,21 +1004,15 @@
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%B8%B6%E5%AD%A3%E9%A2%A8%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>熱帶季風氣候</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%86%B1%E5%B8%B6</t>
   </si>
   <si>
-    <t>亞熱帶</t>
+    <t>亚热带</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%AF%E7%86%B1%E5%B8%B6%E5%AD%A3%E9%A2%A8%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>副熱帶季風氣候</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%A9%E5%B8%A6</t>
   </si>
   <si>
@@ -1037,7 +1022,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E5%B8%B6%E5%A4%A7%E9%99%B8%E6%80%A7%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>溫帶大陸性氣候</t>
+    <t>温带大陆性气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%A9%E5%B8%A6%E8%8D%89%E5%8E%9F%E6%B0%94%E5%80%99</t>
@@ -1055,9 +1040,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A5%B5%E5%9C%B0%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>極地氣候</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%AF%E6%9E%81%E5%9C%B0%E5%A4%A7%E9%99%86%E6%80%A7%E6%B0%94%E5%80%99</t>
   </si>
   <si>
@@ -1067,19 +1049,16 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A5%B5%E5%9C%B0%E5%86%B0%E5%8E%9F%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>極地冰原氣候</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%9C%B0%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>高地氣候</t>
+    <t>高地气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%9C%B0%E7%90%86%E5%88%86%E5%B8%83%E5%8D%80</t>
   </si>
   <si>
-    <t>生物地理分布區</t>
+    <t>生物地理分布区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8C%97%E7%95%8C</t>
@@ -1103,7 +1082,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%B4%8B%E7%95%8C</t>
   </si>
   <si>
-    <t>東洋界</t>
+    <t>东洋界</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%96%B0%E7%95%8C</t>
@@ -1127,7 +1106,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -3215,7 +3194,7 @@
         <v>119</v>
       </c>
       <c r="F60" t="s">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3241,10 +3220,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" t="s">
         <v>121</v>
-      </c>
-      <c r="F61" t="s">
-        <v>122</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3270,10 +3249,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" t="s">
         <v>123</v>
-      </c>
-      <c r="F62" t="s">
-        <v>124</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3299,10 +3278,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" t="s">
         <v>125</v>
-      </c>
-      <c r="F63" t="s">
-        <v>126</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3328,10 +3307,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" t="s">
         <v>127</v>
-      </c>
-      <c r="F64" t="s">
-        <v>128</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3357,10 +3336,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" t="s">
         <v>129</v>
-      </c>
-      <c r="F65" t="s">
-        <v>130</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3386,10 +3365,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>130</v>
+      </c>
+      <c r="F66" t="s">
         <v>131</v>
-      </c>
-      <c r="F66" t="s">
-        <v>132</v>
       </c>
       <c r="G66" t="n">
         <v>2</v>
@@ -3415,10 +3394,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>132</v>
+      </c>
+      <c r="F67" t="s">
         <v>133</v>
-      </c>
-      <c r="F67" t="s">
-        <v>134</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3444,10 +3423,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>134</v>
+      </c>
+      <c r="F68" t="s">
         <v>135</v>
-      </c>
-      <c r="F68" t="s">
-        <v>136</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3473,10 +3452,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>136</v>
+      </c>
+      <c r="F69" t="s">
         <v>137</v>
-      </c>
-      <c r="F69" t="s">
-        <v>138</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3502,10 +3481,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>138</v>
+      </c>
+      <c r="F70" t="s">
         <v>139</v>
-      </c>
-      <c r="F70" t="s">
-        <v>140</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3531,10 +3510,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>140</v>
+      </c>
+      <c r="F71" t="s">
         <v>141</v>
-      </c>
-      <c r="F71" t="s">
-        <v>142</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3560,10 +3539,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>142</v>
+      </c>
+      <c r="F72" t="s">
         <v>143</v>
-      </c>
-      <c r="F72" t="s">
-        <v>144</v>
       </c>
       <c r="G72" t="n">
         <v>2</v>
@@ -3589,10 +3568,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>144</v>
+      </c>
+      <c r="F73" t="s">
         <v>145</v>
-      </c>
-      <c r="F73" t="s">
-        <v>146</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3618,10 +3597,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>146</v>
+      </c>
+      <c r="F74" t="s">
         <v>147</v>
-      </c>
-      <c r="F74" t="s">
-        <v>148</v>
       </c>
       <c r="G74" t="n">
         <v>2</v>
@@ -3647,10 +3626,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>148</v>
+      </c>
+      <c r="F75" t="s">
         <v>149</v>
-      </c>
-      <c r="F75" t="s">
-        <v>150</v>
       </c>
       <c r="G75" t="n">
         <v>3</v>
@@ -3676,10 +3655,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>150</v>
+      </c>
+      <c r="F76" t="s">
         <v>151</v>
-      </c>
-      <c r="F76" t="s">
-        <v>152</v>
       </c>
       <c r="G76" t="n">
         <v>2</v>
@@ -3705,10 +3684,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>152</v>
+      </c>
+      <c r="F77" t="s">
         <v>153</v>
-      </c>
-      <c r="F77" t="s">
-        <v>154</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3734,10 +3713,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>154</v>
+      </c>
+      <c r="F78" t="s">
         <v>155</v>
-      </c>
-      <c r="F78" t="s">
-        <v>156</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3763,10 +3742,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>156</v>
+      </c>
+      <c r="F79" t="s">
         <v>157</v>
-      </c>
-      <c r="F79" t="s">
-        <v>158</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3792,10 +3771,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>158</v>
+      </c>
+      <c r="F80" t="s">
         <v>159</v>
-      </c>
-      <c r="F80" t="s">
-        <v>160</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3821,10 +3800,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>160</v>
+      </c>
+      <c r="F81" t="s">
         <v>161</v>
-      </c>
-      <c r="F81" t="s">
-        <v>162</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3850,10 +3829,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>162</v>
+      </c>
+      <c r="F82" t="s">
         <v>163</v>
-      </c>
-      <c r="F82" t="s">
-        <v>164</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3879,10 +3858,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>164</v>
+      </c>
+      <c r="F83" t="s">
         <v>165</v>
-      </c>
-      <c r="F83" t="s">
-        <v>166</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3908,10 +3887,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>166</v>
+      </c>
+      <c r="F84" t="s">
         <v>167</v>
-      </c>
-      <c r="F84" t="s">
-        <v>168</v>
       </c>
       <c r="G84" t="n">
         <v>2</v>
@@ -3937,10 +3916,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>168</v>
+      </c>
+      <c r="F85" t="s">
         <v>169</v>
-      </c>
-      <c r="F85" t="s">
-        <v>170</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3966,10 +3945,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>170</v>
+      </c>
+      <c r="F86" t="s">
         <v>171</v>
-      </c>
-      <c r="F86" t="s">
-        <v>172</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3995,10 +3974,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>172</v>
+      </c>
+      <c r="F87" t="s">
         <v>173</v>
-      </c>
-      <c r="F87" t="s">
-        <v>174</v>
       </c>
       <c r="G87" t="n">
         <v>2</v>
@@ -4024,10 +4003,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>174</v>
+      </c>
+      <c r="F88" t="s">
         <v>175</v>
-      </c>
-      <c r="F88" t="s">
-        <v>176</v>
       </c>
       <c r="G88" t="n">
         <v>5</v>
@@ -4053,13 +4032,13 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>142</v>
+      </c>
+      <c r="F89" t="s">
         <v>143</v>
       </c>
-      <c r="F89" t="s">
-        <v>144</v>
-      </c>
       <c r="G89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H89" t="s">
         <v>4</v>
@@ -4082,13 +4061,13 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>148</v>
+      </c>
+      <c r="F90" t="s">
         <v>149</v>
       </c>
-      <c r="F90" t="s">
-        <v>150</v>
-      </c>
       <c r="G90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H90" t="s">
         <v>4</v>
@@ -4111,13 +4090,13 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>146</v>
+      </c>
+      <c r="F91" t="s">
         <v>147</v>
       </c>
-      <c r="F91" t="s">
-        <v>148</v>
-      </c>
       <c r="G91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H91" t="s">
         <v>4</v>
@@ -4140,13 +4119,13 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>176</v>
+      </c>
+      <c r="F92" t="s">
         <v>177</v>
       </c>
-      <c r="F92" t="s">
-        <v>178</v>
-      </c>
       <c r="G92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H92" t="s">
         <v>4</v>
@@ -4169,13 +4148,13 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>178</v>
+      </c>
+      <c r="F93" t="s">
         <v>179</v>
       </c>
-      <c r="F93" t="s">
-        <v>180</v>
-      </c>
       <c r="G93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H93" t="s">
         <v>4</v>
@@ -4198,13 +4177,13 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>156</v>
+      </c>
+      <c r="F94" t="s">
         <v>157</v>
       </c>
-      <c r="F94" t="s">
-        <v>158</v>
-      </c>
       <c r="G94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94" t="s">
         <v>4</v>
@@ -4227,13 +4206,13 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>180</v>
+      </c>
+      <c r="F95" t="s">
         <v>181</v>
       </c>
-      <c r="F95" t="s">
-        <v>182</v>
-      </c>
       <c r="G95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H95" t="s">
         <v>4</v>
@@ -4256,13 +4235,13 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>162</v>
+      </c>
+      <c r="F96" t="s">
         <v>163</v>
       </c>
-      <c r="F96" t="s">
-        <v>164</v>
-      </c>
       <c r="G96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96" t="s">
         <v>4</v>
@@ -4285,13 +4264,13 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>166</v>
+      </c>
+      <c r="F97" t="s">
         <v>167</v>
       </c>
-      <c r="F97" t="s">
-        <v>168</v>
-      </c>
       <c r="G97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97" t="s">
         <v>4</v>
@@ -4314,13 +4293,13 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>182</v>
+      </c>
+      <c r="F98" t="s">
         <v>183</v>
       </c>
-      <c r="F98" t="s">
-        <v>184</v>
-      </c>
       <c r="G98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98" t="s">
         <v>4</v>
@@ -4343,13 +4322,13 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>172</v>
+      </c>
+      <c r="F99" t="s">
         <v>173</v>
       </c>
-      <c r="F99" t="s">
-        <v>174</v>
-      </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H99" t="s">
         <v>4</v>
@@ -4372,10 +4351,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>184</v>
+      </c>
+      <c r="F100" t="s">
         <v>185</v>
-      </c>
-      <c r="F100" t="s">
-        <v>186</v>
       </c>
       <c r="G100" t="n">
         <v>6</v>
@@ -4401,10 +4380,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>186</v>
+      </c>
+      <c r="F101" t="s">
         <v>187</v>
-      </c>
-      <c r="F101" t="s">
-        <v>188</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4430,10 +4409,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>188</v>
+      </c>
+      <c r="F102" t="s">
         <v>189</v>
-      </c>
-      <c r="F102" t="s">
-        <v>190</v>
       </c>
       <c r="G102" t="n">
         <v>3</v>
@@ -4459,10 +4438,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>190</v>
+      </c>
+      <c r="F103" t="s">
         <v>191</v>
-      </c>
-      <c r="F103" t="s">
-        <v>192</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4488,10 +4467,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>192</v>
+      </c>
+      <c r="F104" t="s">
         <v>193</v>
-      </c>
-      <c r="F104" t="s">
-        <v>194</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4517,10 +4496,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>194</v>
+      </c>
+      <c r="F105" t="s">
         <v>195</v>
-      </c>
-      <c r="F105" t="s">
-        <v>196</v>
       </c>
       <c r="G105" t="n">
         <v>3</v>
@@ -4546,10 +4525,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>196</v>
+      </c>
+      <c r="F106" t="s">
         <v>197</v>
-      </c>
-      <c r="F106" t="s">
-        <v>198</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4575,10 +4554,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>198</v>
+      </c>
+      <c r="F107" t="s">
         <v>199</v>
-      </c>
-      <c r="F107" t="s">
-        <v>200</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4604,10 +4583,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>200</v>
+      </c>
+      <c r="F108" t="s">
         <v>201</v>
-      </c>
-      <c r="F108" t="s">
-        <v>202</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4633,10 +4612,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>202</v>
+      </c>
+      <c r="F109" t="s">
         <v>203</v>
-      </c>
-      <c r="F109" t="s">
-        <v>204</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4662,10 +4641,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>204</v>
+      </c>
+      <c r="F110" t="s">
         <v>205</v>
-      </c>
-      <c r="F110" t="s">
-        <v>206</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4691,10 +4670,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>206</v>
+      </c>
+      <c r="F111" t="s">
         <v>207</v>
-      </c>
-      <c r="F111" t="s">
-        <v>208</v>
       </c>
       <c r="G111" t="n">
         <v>2</v>
@@ -4720,10 +4699,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>208</v>
+      </c>
+      <c r="F112" t="s">
         <v>209</v>
-      </c>
-      <c r="F112" t="s">
-        <v>210</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4749,10 +4728,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>210</v>
+      </c>
+      <c r="F113" t="s">
         <v>211</v>
-      </c>
-      <c r="F113" t="s">
-        <v>212</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4778,10 +4757,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>212</v>
+      </c>
+      <c r="F114" t="s">
         <v>213</v>
-      </c>
-      <c r="F114" t="s">
-        <v>214</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4807,10 +4786,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>214</v>
+      </c>
+      <c r="F115" t="s">
         <v>215</v>
-      </c>
-      <c r="F115" t="s">
-        <v>216</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4836,10 +4815,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>216</v>
+      </c>
+      <c r="F116" t="s">
         <v>217</v>
-      </c>
-      <c r="F116" t="s">
-        <v>218</v>
       </c>
       <c r="G116" t="n">
         <v>15</v>
@@ -4865,10 +4844,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>218</v>
+      </c>
+      <c r="F117" t="s">
         <v>219</v>
-      </c>
-      <c r="F117" t="s">
-        <v>220</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4894,10 +4873,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>220</v>
+      </c>
+      <c r="F118" t="s">
         <v>221</v>
-      </c>
-      <c r="F118" t="s">
-        <v>222</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4923,10 +4902,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>222</v>
+      </c>
+      <c r="F119" t="s">
         <v>223</v>
-      </c>
-      <c r="F119" t="s">
-        <v>224</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4952,10 +4931,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>218</v>
+      </c>
+      <c r="F120" t="s">
         <v>219</v>
-      </c>
-      <c r="F120" t="s">
-        <v>220</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4981,10 +4960,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>220</v>
+      </c>
+      <c r="F121" t="s">
         <v>221</v>
-      </c>
-      <c r="F121" t="s">
-        <v>222</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5010,10 +4989,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>224</v>
+      </c>
+      <c r="F122" t="s">
         <v>225</v>
-      </c>
-      <c r="F122" t="s">
-        <v>226</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5039,10 +5018,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>226</v>
+      </c>
+      <c r="F123" t="s">
         <v>227</v>
-      </c>
-      <c r="F123" t="s">
-        <v>228</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5068,10 +5047,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>228</v>
+      </c>
+      <c r="F124" t="s">
         <v>229</v>
-      </c>
-      <c r="F124" t="s">
-        <v>230</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5097,10 +5076,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>230</v>
+      </c>
+      <c r="F125" t="s">
         <v>231</v>
-      </c>
-      <c r="F125" t="s">
-        <v>232</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5126,10 +5105,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>232</v>
+      </c>
+      <c r="F126" t="s">
         <v>233</v>
-      </c>
-      <c r="F126" t="s">
-        <v>234</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5155,10 +5134,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>234</v>
+      </c>
+      <c r="F127" t="s">
         <v>235</v>
-      </c>
-      <c r="F127" t="s">
-        <v>236</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5184,10 +5163,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>236</v>
+      </c>
+      <c r="F128" t="s">
         <v>237</v>
-      </c>
-      <c r="F128" t="s">
-        <v>238</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5213,10 +5192,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>238</v>
+      </c>
+      <c r="F129" t="s">
         <v>239</v>
-      </c>
-      <c r="F129" t="s">
-        <v>240</v>
       </c>
       <c r="G129" t="n">
         <v>3</v>
@@ -5242,10 +5221,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>240</v>
+      </c>
+      <c r="F130" t="s">
         <v>241</v>
-      </c>
-      <c r="F130" t="s">
-        <v>242</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5271,10 +5250,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>242</v>
+      </c>
+      <c r="F131" t="s">
         <v>243</v>
-      </c>
-      <c r="F131" t="s">
-        <v>244</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5300,10 +5279,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>244</v>
+      </c>
+      <c r="F132" t="s">
         <v>245</v>
-      </c>
-      <c r="F132" t="s">
-        <v>246</v>
       </c>
       <c r="G132" t="n">
         <v>2</v>
@@ -5329,10 +5308,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>246</v>
+      </c>
+      <c r="F133" t="s">
         <v>247</v>
-      </c>
-      <c r="F133" t="s">
-        <v>248</v>
       </c>
       <c r="G133" t="n">
         <v>2</v>
@@ -5358,10 +5337,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>248</v>
+      </c>
+      <c r="F134" t="s">
         <v>249</v>
-      </c>
-      <c r="F134" t="s">
-        <v>250</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5387,10 +5366,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>250</v>
+      </c>
+      <c r="F135" t="s">
         <v>251</v>
-      </c>
-      <c r="F135" t="s">
-        <v>252</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5416,10 +5395,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>252</v>
+      </c>
+      <c r="F136" t="s">
         <v>253</v>
-      </c>
-      <c r="F136" t="s">
-        <v>254</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5445,10 +5424,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>254</v>
+      </c>
+      <c r="F137" t="s">
         <v>255</v>
-      </c>
-      <c r="F137" t="s">
-        <v>256</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5474,10 +5453,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>256</v>
+      </c>
+      <c r="F138" t="s">
         <v>257</v>
-      </c>
-      <c r="F138" t="s">
-        <v>258</v>
       </c>
       <c r="G138" t="n">
         <v>15</v>
@@ -5503,10 +5482,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>258</v>
+      </c>
+      <c r="F139" t="s">
         <v>259</v>
-      </c>
-      <c r="F139" t="s">
-        <v>260</v>
       </c>
       <c r="G139" t="n">
         <v>3</v>
@@ -5532,10 +5511,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>260</v>
+      </c>
+      <c r="F140" t="s">
         <v>261</v>
-      </c>
-      <c r="F140" t="s">
-        <v>262</v>
       </c>
       <c r="G140" t="n">
         <v>3</v>
@@ -5561,10 +5540,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>262</v>
+      </c>
+      <c r="F141" t="s">
         <v>263</v>
-      </c>
-      <c r="F141" t="s">
-        <v>264</v>
       </c>
       <c r="G141" t="n">
         <v>4</v>
@@ -5590,10 +5569,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>264</v>
+      </c>
+      <c r="F142" t="s">
         <v>265</v>
-      </c>
-      <c r="F142" t="s">
-        <v>266</v>
       </c>
       <c r="G142" t="n">
         <v>2</v>
@@ -5619,10 +5598,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>266</v>
+      </c>
+      <c r="F143" t="s">
         <v>267</v>
-      </c>
-      <c r="F143" t="s">
-        <v>268</v>
       </c>
       <c r="G143" t="n">
         <v>2</v>
@@ -5648,10 +5627,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>268</v>
+      </c>
+      <c r="F144" t="s">
         <v>269</v>
-      </c>
-      <c r="F144" t="s">
-        <v>270</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5677,10 +5656,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>270</v>
+      </c>
+      <c r="F145" t="s">
         <v>271</v>
-      </c>
-      <c r="F145" t="s">
-        <v>272</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5706,10 +5685,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>260</v>
+      </c>
+      <c r="F146" t="s">
         <v>261</v>
-      </c>
-      <c r="F146" t="s">
-        <v>262</v>
       </c>
       <c r="G146" t="n">
         <v>4</v>
@@ -5735,10 +5714,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>272</v>
+      </c>
+      <c r="F147" t="s">
         <v>273</v>
-      </c>
-      <c r="F147" t="s">
-        <v>274</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5764,10 +5743,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>274</v>
+      </c>
+      <c r="F148" t="s">
         <v>275</v>
-      </c>
-      <c r="F148" t="s">
-        <v>276</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5793,10 +5772,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>276</v>
+      </c>
+      <c r="F149" t="s">
         <v>277</v>
-      </c>
-      <c r="F149" t="s">
-        <v>278</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5822,10 +5801,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>278</v>
+      </c>
+      <c r="F150" t="s">
         <v>279</v>
-      </c>
-      <c r="F150" t="s">
-        <v>280</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5851,10 +5830,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>280</v>
+      </c>
+      <c r="F151" t="s">
         <v>281</v>
-      </c>
-      <c r="F151" t="s">
-        <v>282</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5880,10 +5859,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>282</v>
+      </c>
+      <c r="F152" t="s">
         <v>283</v>
-      </c>
-      <c r="F152" t="s">
-        <v>284</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -5909,10 +5888,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>284</v>
+      </c>
+      <c r="F153" t="s">
         <v>285</v>
-      </c>
-      <c r="F153" t="s">
-        <v>286</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -5938,10 +5917,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>286</v>
+      </c>
+      <c r="F154" t="s">
         <v>287</v>
-      </c>
-      <c r="F154" t="s">
-        <v>288</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -5967,10 +5946,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>288</v>
+      </c>
+      <c r="F155" t="s">
         <v>289</v>
-      </c>
-      <c r="F155" t="s">
-        <v>290</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -5996,10 +5975,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>290</v>
+      </c>
+      <c r="F156" t="s">
         <v>291</v>
-      </c>
-      <c r="F156" t="s">
-        <v>292</v>
       </c>
       <c r="G156" t="n">
         <v>7</v>
@@ -6025,10 +6004,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>292</v>
+      </c>
+      <c r="F157" t="s">
         <v>293</v>
-      </c>
-      <c r="F157" t="s">
-        <v>294</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6054,10 +6033,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>294</v>
+      </c>
+      <c r="F158" t="s">
         <v>295</v>
-      </c>
-      <c r="F158" t="s">
-        <v>296</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6083,10 +6062,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>296</v>
+      </c>
+      <c r="F159" t="s">
         <v>297</v>
-      </c>
-      <c r="F159" t="s">
-        <v>298</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6112,10 +6091,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>298</v>
+      </c>
+      <c r="F160" t="s">
         <v>299</v>
-      </c>
-      <c r="F160" t="s">
-        <v>300</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6141,10 +6120,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>300</v>
+      </c>
+      <c r="F161" t="s">
         <v>301</v>
-      </c>
-      <c r="F161" t="s">
-        <v>302</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6170,10 +6149,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>302</v>
+      </c>
+      <c r="F162" t="s">
         <v>303</v>
-      </c>
-      <c r="F162" t="s">
-        <v>304</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6199,10 +6178,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>304</v>
+      </c>
+      <c r="F163" t="s">
         <v>305</v>
-      </c>
-      <c r="F163" t="s">
-        <v>306</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6228,10 +6207,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>306</v>
+      </c>
+      <c r="F164" t="s">
         <v>307</v>
-      </c>
-      <c r="F164" t="s">
-        <v>308</v>
       </c>
       <c r="G164" t="n">
         <v>5</v>
@@ -6257,10 +6236,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>308</v>
+      </c>
+      <c r="F165" t="s">
         <v>309</v>
-      </c>
-      <c r="F165" t="s">
-        <v>310</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6286,10 +6265,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>310</v>
+      </c>
+      <c r="F166" t="s">
         <v>311</v>
-      </c>
-      <c r="F166" t="s">
-        <v>312</v>
       </c>
       <c r="G166" t="n">
         <v>2</v>
@@ -6315,10 +6294,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>312</v>
+      </c>
+      <c r="F167" t="s">
         <v>313</v>
-      </c>
-      <c r="F167" t="s">
-        <v>314</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6344,10 +6323,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>314</v>
+      </c>
+      <c r="F168" t="s">
         <v>315</v>
-      </c>
-      <c r="F168" t="s">
-        <v>316</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6373,10 +6352,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>316</v>
+      </c>
+      <c r="F169" t="s">
         <v>317</v>
-      </c>
-      <c r="F169" t="s">
-        <v>318</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6402,10 +6381,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>318</v>
+      </c>
+      <c r="F170" t="s">
         <v>319</v>
-      </c>
-      <c r="F170" t="s">
-        <v>320</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6431,10 +6410,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>320</v>
+      </c>
+      <c r="F171" t="s">
         <v>321</v>
-      </c>
-      <c r="F171" t="s">
-        <v>322</v>
       </c>
       <c r="G171" t="n">
         <v>4</v>
@@ -6460,10 +6439,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>322</v>
+      </c>
+      <c r="F172" t="s">
         <v>323</v>
-      </c>
-      <c r="F172" t="s">
-        <v>324</v>
       </c>
       <c r="G172" t="n">
         <v>13</v>
@@ -6489,10 +6468,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F173" t="s">
-        <v>326</v>
+        <v>143</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6518,10 +6497,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F174" t="s">
-        <v>328</v>
+        <v>147</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6547,10 +6526,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F175" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6576,10 +6555,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
+        <v>150</v>
+      </c>
+      <c r="F176" t="s">
         <v>151</v>
-      </c>
-      <c r="F176" t="s">
-        <v>152</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6605,10 +6584,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F177" t="s">
-        <v>332</v>
+        <v>149</v>
       </c>
       <c r="G177" t="n">
         <v>2</v>
@@ -6634,10 +6613,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F178" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6663,10 +6642,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
+        <v>156</v>
+      </c>
+      <c r="F179" t="s">
         <v>157</v>
-      </c>
-      <c r="F179" t="s">
-        <v>158</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6692,10 +6671,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F180" t="s">
-        <v>336</v>
+        <v>155</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -6721,10 +6700,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="F181" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="G181" t="n">
         <v>8</v>
@@ -6750,10 +6729,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
+        <v>158</v>
+      </c>
+      <c r="F182" t="s">
         <v>159</v>
-      </c>
-      <c r="F182" t="s">
-        <v>160</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -6779,10 +6758,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="F183" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -6808,10 +6787,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="F184" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -6837,10 +6816,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
+        <v>164</v>
+      </c>
+      <c r="F185" t="s">
         <v>165</v>
-      </c>
-      <c r="F185" t="s">
-        <v>166</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -6866,10 +6845,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
+        <v>160</v>
+      </c>
+      <c r="F186" t="s">
         <v>161</v>
-      </c>
-      <c r="F186" t="s">
-        <v>162</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -6895,10 +6874,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="F187" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="G187" t="n">
         <v>2</v>
@@ -6924,10 +6903,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="F188" t="s">
-        <v>346</v>
+        <v>183</v>
       </c>
       <c r="G188" t="n">
         <v>2</v>
@@ -6953,10 +6932,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="F189" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -6982,10 +6961,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
+        <v>168</v>
+      </c>
+      <c r="F190" t="s">
         <v>169</v>
-      </c>
-      <c r="F190" t="s">
-        <v>170</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7011,10 +6990,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="F191" t="s">
-        <v>350</v>
+        <v>171</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7040,10 +7019,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="F192" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7069,10 +7048,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="F193" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7098,10 +7077,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="F194" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7127,10 +7106,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="F195" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7156,10 +7135,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="F196" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7185,10 +7164,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="F197" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7214,10 +7193,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="F198" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7243,10 +7222,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F199" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7272,10 +7251,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="F200" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7301,10 +7280,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="F201" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="G201" t="n">
         <v>3</v>
@@ -7330,10 +7309,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="F202" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
